--- a/outputs/CAROLINA3.xlsx
+++ b/outputs/CAROLINA3.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Abi is motivated to plan which sessions to attend the next day, as it will help her make the most out of the conference. This aligns with her motivation to accomplish her tasks. Additionally, Abi's comprehensive information processing style means she would consider gathering information about the available sessions as a logical step toward making a well-informed decision.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. Additionally, her comprehensive information processing style means she would consider gathering information about the sessions as a necessary step toward achieving her overall goal of attending the most relevant and interesting sessions.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Program" menu item is clearly labeled and visible in the navigation bar, which aligns with Abi's comprehensive information processing style. This clear labeling provides a direct path to the information she needs, and she is likely to recognize that clicking on "Program" is a logical step to find out what sessions are available. Abi’s preference for process-oriented learning means she would look for and follow clear, labeled steps to achieve her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled and logically associated with finding session information. Her comprehensive information processing style would lead her to look for a program or schedule to gather the necessary details.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown containing multiple options. Given her low computer self-efficacy, she might feel uncertain about which specific sub-menu to choose to get the complete information she needs. Abi's comprehensive information processing style might also be hindered here, as she may not immediately recognize which option will provide the full schedule for the next day. The presence of multiple options without clear guidance or labeling specific to her immediate need (tomorrow's sessions) could cause confusion and hinder her progress.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Program" menu item, Abi will see a dropdown menu with various options related to the program, such as "Complete Program," "Week Overview," and "Keynotes." This will confirm to Abi that she is on the right track to finding the session information she needs. The comprehensive list of options aligns with her information processing style, allowing her to gather detailed information about the sessions.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Complete Program" option is clearly labeled in the dropdown menu under "Program." This clear labeling aligns with Abi's comprehensive information processing style and process-oriented learning style. It directly suggests that clicking on it will provide a full overview of the program, which is exactly what Abi needs to plan her sessions for the next day.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find detailed information about the sessions, and the "Complete Program" option is clearly labeled and suggests it will provide comprehensive information about the conference schedule. This aligns with her information processing style, as she prefers to gather all relevant details to make an informed decision about which sessions to attend.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Complete Program," Abi is directed to a detailed schedule page that lists sessions by day and time. The detailed timeline and clear labels for each session allow Abi to see all the information she needs in an organized manner. This aligns with her comprehensive information processing style, as she can scan through the sessions and make informed decisions on which ones to attend. Additionally, this helps her achieve her goal of planning her sessions for the next day, supporting her motivation to accomplish her tasks efficiently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Complete Program," Abi will land on a page that provides a detailed timeline of the sessions, including times, titles, and locations. This comprehensive view aligns with her motivation to plan her schedule and her information processing style, which involves gathering all relevant details. The detailed timeline will help her know that she is making progress toward her goal and provide all the information she needs to decide which sessions to attend.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The "Session Timeline" tab is clearly labeled and prominently positioned next to the "Detailed Table" tab, making it easy for Abi to recognize. This aligns with her comprehensive information processing style and process-oriented learning style. Abi would understand that clicking on "Session Timeline" would provide a different view of the schedule that might help her better visualize and plan her sessions for the next day.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Session Timeline" tab is not clearly explained on the page, and Abi might not be confident about what it will show or how it differs from the "Detailed Table" view she is already seeing. Given her low computer self-efficacy and preference for process-oriented learning, she might hesitate to click on it without more information about what it will provide.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style
-Why: The session timeline page displays a highly detailed and visually dense schedule that might be overwhelming for Abi. Given her low computer self-efficacy, she might feel uncertain and overwhelmed by the sheer amount of information presented in this format. Additionally, while Abi prefers comprehensive information, she is likely to find this presentation too cluttered and difficult to parse, making it hard for her to identify and plan for the sessions she wants to attend. The lack of clear segmentation or filtering options immediately visible on this page adds to the difficulty, hindering her progress towards her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the session timeline provides a visual overview of the sessions, it is very dense and may be overwhelming for Abi. Given her comprehensive information processing style, she might find it difficult to extract the specific information she needs from this visual representation. Additionally, her low computer self-efficacy might make her uncertain about how to navigate or interpret this timeline effectively. The sheer volume of information presented in this format could hinder her ability to feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Toward Risk
-Why: The timeline page is highly detailed and dense with information, which might be overwhelming for Abi. Given her low computer self-efficacy, she might not feel confident in navigating this complex layout to find and click on a specific session like the tutorial on "R for Software Engineering Research." Additionally, without clear instructions or an obvious visual cue indicating that clicking on the session will provide more details, Abi might be hesitant to click on it due to her risk-averse nature. The fear of doing something wrong or not achieving the desired result may prevent her from taking this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline is very dense and visually complex, which might make it difficult for Abi to confidently identify and click on the specific tutorial she is interested in. Given her low computer self-efficacy, she might be unsure about how to interact with this interface. Additionally, her preference for process-oriented learning means she would benefit from clearer instructions or labels, which are not provided in this dense visual representation.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is directed to a page that provides detailed information about the tutorial, including the course description, prerequisites, and the schedule. This aligns well with her comprehensive information processing style, as she has access to all the necessary details to make an informed decision. Additionally, the clear and structured presentation of information supports her process-oriented learning style, making it easier for her to understand and confirm that she is making progress toward her goal of planning which sessions to attend.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi will land on a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to gather comprehensive information about the sessions she plans to attend. The detailed and structured format of the information will help her feel confident that she is making progress toward her goal and has all the necessary details to decide whether to attend this tutorial.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA3.xlsx
+++ b/outputs/CAROLINA3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her schedule for the next day to make the most of her time at the conference. This subgoal aligns with her need to gather comprehensive information to decide which sessions to attend.</t>
+Why: Abi is motivated to plan her sessions for the next day, which aligns with her goal of attending the conference effectively. The page provides a comprehensive list of tracks and sessions, which supports her information processing style of gathering detailed information before making decisions.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on the "Program" menu item is a necessary step to achieve her subgoal.</t>
+Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled, indicating it will likely contain the schedule or session information she needs. This aligns with her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Program" menu item, Abi is presented with a dropdown menu containing multiple options. While this indicates progress, it may not be immediately clear which specific option will provide the detailed session information she needs. Given her comprehensive information processing style, she might feel uncertain about which link to click next. Additionally, her low computer self-efficacy might make her hesitant to explore multiple options without clear guidance.</t>
+Why: While Abi will know she is making progress by clicking the "Program" menu item, the resulting dropdown menu presents many options without clear guidance on which one to choose for her specific need of planning sessions for the next day. This could overwhelm her due to her comprehensive information processing style and low computer self-efficacy, making it difficult for her to confidently select the right option and get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option in the dropdown menu is clearly labeled and directly related to Abi's goal of finding out which sessions to attend. Given her motivation to plan her schedule and her comprehensive information processing style, she will likely recognize that clicking on "Complete Program" is a necessary step to achieve her subgoal.</t>
+Why: Abi is motivated to find the sessions for the next day, and the "Complete Program" option in the dropdown menu is clearly labeled, indicating it will likely contain the full schedule of sessions. This aligns with her comprehensive information processing style, as she would logically look for a complete program to gather all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -462,43 +462,43 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi is taken to a page that provides a detailed timeline of sessions for the day. This page includes comprehensive information about the sessions, including times, titles, and speakers, which aligns with her need for detailed information to plan her schedule. The clear presentation of the schedule will help Abi know that she is making progress toward her goal of deciding which sessions to attend.</t>
+Why: After clicking on "Complete Program," Abi will land on a page that provides a detailed schedule of sessions, which directly aligns with her goal of planning which sessions to attend the next day. The page is organized in a way that allows her to see the sessions by time and topic, which supports her comprehensive information processing style. This will help her feel confident that she is making progress toward her goal and has access to all the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Session Timeline" tab is not clearly explained on the page, and Abi might not be confident about what it will show or how it will help her achieve her subgoal. Given her low computer self-efficacy and preference for process-oriented learning, she might hesitate to click on it without more information about what it will provide. This lack of clarity could prevent her from knowing what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will know she is making progress by clicking on the "Session Timeline," the resulting page presents a very dense and visually complex schedule. This could overwhelm her due to her comprehensive information processing style, as it may be difficult to quickly extract the specific information she needs. Additionally, her low computer self-efficacy might make her feel uncertain about navigating and interpreting such a detailed and visually cluttered timeline, hindering her ability to confidently plan her sessions for the next day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The timeline is visually complex and dense, which might make it difficult for Abi to confidently identify and click on the specific tutorial she is interested in. Given her low computer self-efficacy, she might feel uncertain about navigating this detailed timeline. Additionally, her preference for process-oriented learning means she would benefit from clearer instructions or guidance, which is not provided on this page. This could hinder her ability to know what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Session Timeline" tab is clearly labeled and is located next to the "Detailed Table" tab, which Abi is currently viewing. Given her motivation to find detailed information about the sessions and her comprehensive information processing style, Abi will likely recognize that clicking on the "Session Timeline" tab will provide an alternative view of the session schedule, helping her to better plan her day.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Session Timeline," Abi is presented with a very dense and visually complex schedule. While this view provides a lot of information, it may be overwhelming for Abi, given her need for comprehensive information processing and her low computer self-efficacy. The sheer volume of information and the visual complexity might make it difficult for her to quickly determine if she is making progress toward her goal and to extract the specific details she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The timeline view is very dense and visually complex, which might make it difficult for Abi to quickly identify the specific tutorial she is interested in. Given her comprehensive information processing style, she might feel overwhelmed by the amount of information presented. Additionally, her low computer self-efficacy might make her hesitant to click on a specific session without being certain it will provide the detailed information she needs. The visual complexity and lack of clear guidance on what each session link will provide could deter her from confidently taking this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi is taken to a page that provides detailed information about the tutorial, including the course description, prerequisites, and instructor details. This aligns with her motivation to gather comprehensive information to plan her schedule. The clear and detailed presentation of the tutorial information will help Abi know that she is making progress toward her goal and has the necessary information to decide whether to attend this session.</t>
+Why: After clicking on the tutorial "R for Software Engineering Research," Abi will land on a page that provides detailed information about the tutorial, including the course description, prerequisites, and schedule. This aligns with her motivation to plan her sessions and her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the tutorial. This will help her feel confident that she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA3.xlsx
+++ b/outputs/CAROLINA3.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to plan her sessions for the next day, which aligns with her goal of attending the conference effectively. The page provides a comprehensive list of tracks and sessions, which supports her information processing style of gathering detailed information before making decisions.</t>
+Facets: 1. Motivations
+Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her overall goal of making the most of her time at ICSE 2019.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is clearly labeled, indicating it will likely contain the schedule or session information she needs. This aligns with her comprehensive information processing style, as she would logically look for a program or schedule to plan her day.</t>
+Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is a logical place to look for session information. Her comprehensive information processing style would lead her to explore this option to gather the necessary details.</t>
         </is>
       </c>
     </row>
@@ -444,52 +444,52 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is making progress by clicking the "Program" menu item, the resulting dropdown menu presents many options without clear guidance on which one to choose for her specific need of planning sessions for the next day. This could overwhelm her due to her comprehensive information processing style and low computer self-efficacy, making it difficult for her to confidently select the right option and get all the information she needs.</t>
+Why: Although Abi lands on a page with session information, the overwhelming amount of data may make it difficult for her to process and find the specific sessions she is interested in. Her low computer self-efficacy might also make her doubt whether she is effectively making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and without clear guidance or a step-by-step process, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for structured learning make it challenging for her to know what to do next.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find the sessions for the next day, and the "Complete Program" option in the dropdown menu is clearly labeled, indicating it will likely contain the full schedule of sessions. This aligns with her comprehensive information processing style, as she would logically look for a complete program to gather all the necessary information.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: After clicking "complete program," Abi lands on a page with a clear and organized schedule of sessions. This aligns with her motivation to plan her day and her comprehensive information processing style, allowing her to see that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Complete Program," Abi will land on a page that provides a detailed schedule of sessions, which directly aligns with her goal of planning which sessions to attend the next day. The page is organized in a way that allows her to see the sessions by time and topic, which supports her comprehensive information processing style. This will help her feel confident that she is making progress toward her goal and has access to all the information she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+Why: The "session timeline" option is clearly labeled and likely to provide a visual representation of the schedule, which aligns with Abi's motivation to plan her day. Her comprehensive information processing style would guide her to explore this option for a clearer overview.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The session timeline provides a clear, visual overview of the schedule, which helps Abi see her options for the next day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Session Timeline" tab is not clearly explained on the page, and Abi might not be confident about what it will show or how it will help her achieve her subgoal. Given her low computer self-efficacy and preference for process-oriented learning, she might hesitate to click on it without more information about what it will provide. This lack of clarity could prevent her from knowing what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is making progress by clicking on the "Session Timeline," the resulting page presents a very dense and visually complex schedule. This could overwhelm her due to her comprehensive information processing style, as it may be difficult to quickly extract the specific information she needs. Additionally, her low computer self-efficacy might make her feel uncertain about navigating and interpreting such a detailed and visually cluttered timeline, hindering her ability to confidently plan her sessions for the next day.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is visually complex and dense, which might make it difficult for Abi to confidently identify and click on the specific tutorial she is interested in. Given her low computer self-efficacy, she might feel uncertain about navigating this detailed timeline. Additionally, her preference for process-oriented learning means she would benefit from clearer instructions or guidance, which is not provided on this page. This could hinder her ability to know what to do at this step.</t>
+Why: The timeline is dense with information, and without explicit instructions or a clear indication of what clicking on the tutorial will provide, Abi might hesitate. Her low computer self-efficacy and preference for structured guidance make it challenging for her to confidently know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial "R for Software Engineering Research," Abi will land on a page that provides detailed information about the tutorial, including the course description, prerequisites, and schedule. This aligns with her motivation to plan her sessions and her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the tutorial. This will help her feel confident that she is making progress toward her goal and has the information she needs.</t>
+Why: After clicking on the tutorial, Abi lands on a page with detailed information about the session, including the course description and prerequisites. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA3.xlsx
+++ b/outputs/CAROLINA3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her overall goal of making the most of her time at ICSE 2019.</t>
+Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish tasks effectively.</t>
         </is>
       </c>
     </row>
@@ -435,43 +435,43 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find out which sessions to attend, and the "Program" menu item is a logical place to look for session information. Her comprehensive information processing style would lead her to explore this option to gather the necessary details.</t>
+Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to look for a program or schedule to determine which sessions to attend.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to explore the schedule, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly related to her task, aligning with her motivation and comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to plan her sessions and her comprehensive information processing style, as she seeks detailed information to make informed decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with session information, the overwhelming amount of data may make it difficult for her to process and find the specific sessions she is interested in. Her low computer self-efficacy might also make her doubt whether she is effectively making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+Why: The "Complete Program" page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to sift through all the details to find specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or a step-by-step process, Abi might struggle to identify the "complete program" link. Her low computer self-efficacy and preference for structured learning make it challenging for her to know what to do next.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "complete program," Abi lands on a page with a clear and organized schedule of sessions. This aligns with her motivation to plan her day and her comprehensive information processing style, allowing her to see that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "session timeline" option is clearly labeled and likely to provide a visual representation of the schedule, which aligns with Abi's motivation to plan her day. Her comprehensive information processing style would guide her to explore this option for a clearer overview.</t>
+Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -480,16 +480,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear, visual overview of the schedule, which helps Abi see her options for the next day. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: The session timeline provides a clear visual representation of the schedule, making it easier for Abi to see the sessions available each day. This aligns with her motivation to plan effectively and her comprehensive information processing style, as she can quickly identify and compare sessions for the next day.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The timeline is dense with information, and without explicit instructions or a clear indication of what clicking on the tutorial will provide, Abi might hesitate. Her low computer self-efficacy and preference for structured guidance make it challenging for her to confidently know what to do at this step.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The timeline clearly labels sessions, including the "R for Software Engineering Research" tutorial. Abi's motivation to plan her schedule and her comprehensive information processing style will guide her to click on the tutorial to gather more details, as it directly relates to her goal.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the tutorial, Abi lands on a page with detailed information about the session, including the course description and prerequisites. This aligns with her motivation to plan effectively and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan effectively and her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/CAROLINA3.xlsx
+++ b/outputs/CAROLINA3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations
-Why: Abi is at the conference and planning her schedule for the next day. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at the conference. This aligns with her motivation to accomplish tasks effectively.</t>
+Why: Abi is motivated to plan her schedule for the next day at the conference. Determining which sessions to attend is a logical step toward achieving her goal of making the most of her time at ICSE 2019.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" menu item is clearly labeled and directly related to finding session information, which aligns with Abi's motivation to plan her schedule. Her comprehensive information processing style would lead her to look for a program or schedule to determine which sessions to attend.</t>
+Why: The "Program" menu item is clearly labeled and directly related to Abi's goal of finding sessions to attend. This aligns with her motivation to plan her schedule and her comprehensive information processing style, as she would logically look for a program or schedule to determine which sessions to attend.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to explore the schedule, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly related to her task, aligning with her motivation and comprehensive information processing style.</t>
+Why: After clicking the "Program" menu, Abi sees a dropdown with options like "Complete Program," "Your Program," and specific dates. This provides clear paths to explore the sessions, confirming she is making progress toward her goal of planning which sessions to attend. The options are directly related to her task, aligning with her motivation and comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to plan her sessions and her comprehensive information processing style, as she seeks detailed information to make informed decisions.</t>
+Why: The "Complete Program" option is clearly labeled and suggests it will provide a full overview of the conference schedule. This aligns with Abi's motivation to find sessions for the next day and her comprehensive information processing style, as she would likely seek a complete list to make informed decisions.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Complete Program" page contains a large amount of information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to sift through all the details to find specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
+Why: The page contains a large amount of information, which may overwhelm Abi. Her comprehensive information processing style might make it difficult to sift through all the details to find specific sessions for the next day. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively using the page to achieve her goal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and there is no clear indication or label for a "session timeline" to click on. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without explicit guidance.</t>
+Why: The page is dense with information, and it's unclear where the "session timeline" is or how to interact with it. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct action without clear guidance or instructions.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The session timeline provides a clear visual representation of the schedule, making it easier for Abi to see the sessions available each day. This aligns with her motivation to plan effectively and her comprehensive information processing style, as she can quickly identify and compare sessions for the next day.</t>
+Why: The session timeline provides a clear, visual representation of the schedule, making it easier for Abi to see the sessions available on each day. This aligns with her motivation to plan her day and supports her comprehensive information processing style by presenting the information in an organized manner. She can see her progress toward selecting sessions for the next day.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The timeline clearly labels sessions, including the "R for Software Engineering Research" tutorial. Abi's motivation to plan her schedule and her comprehensive information processing style will guide her to click on the tutorial to gather more details, as it directly relates to her goal.</t>
+Why: The timeline clearly displays the tutorial "R for Software Engineering Research," which is relevant to Abi's goal of selecting sessions. Her motivation to plan her schedule and the organized presentation of information support her ability to identify and click on the tutorial.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the course description and prerequisites. This aligns with Abi's motivation to plan effectively and her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: The page provides detailed information about the "R for Software Engineering Research" tutorial, including the time, location, and course description. This aligns with Abi's motivation to plan her sessions and supports her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
